--- a/Adult Income Simple RF/Feature_importance_diff_50_5_3166_2.xlsx
+++ b/Adult Income Simple RF/Feature_importance_diff_50_5_3166_2.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -465,621 +465,621 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.03323545252727732</v>
+        <v>0.1963391689511694</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6844455216710449</v>
+        <v>0.5907108432582996</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6512100691437676</v>
+        <v>0.3943716743071302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-civ-spouse</t>
+          <t>remainder__education-num</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2734718506172776</v>
+        <v>0.1752903391641527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03995966641055698</v>
+        <v>0.03176677524482298</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2335121842067206</v>
+        <v>-0.1435235639193297</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>remainder__education-num</t>
+          <t>cat__marital-status_Married-civ-spouse</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1729661652984414</v>
+        <v>0.1451244686933163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01559713959786457</v>
+        <v>0.03027702670727231</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1573690257005768</v>
+        <v>-0.114847441986044</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>remainder__fnlwgt</t>
+          <t>cat__relationship_Husband</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.142668984297233</v>
+        <v>0.1348860714321381</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00324432090347544</v>
+        <v>0.05098704735840253</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1394246633937575</v>
+        <v>-0.08389902407373559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cat__relationship_Husband</t>
+          <t>remainder__hours-per-week</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1436071926144994</v>
+        <v>0.04692525508334885</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0458351870333631</v>
+        <v>0.02227882187493194</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.09777200558113627</v>
+        <v>-0.02464643320841691</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>remainder__Unnamed: 0</t>
+          <t>cat__relationship_Not-in-family</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.04115771870059743</v>
+        <v>0.02299917080409287</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004825914534927803</v>
+        <v>0.007490587885332643</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03633180416566963</v>
+        <v>-0.01550858291876023</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>remainder__age</t>
+          <t>cat__relationship_Wife</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.001335156984354888</v>
+        <v>0.01992366659145726</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03751429783526475</v>
+        <v>0.00984621305922952</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03617914085090986</v>
+        <v>-0.01007745353222774</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cat__relationship_Wife</t>
+          <t>remainder__age</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.02513233201951742</v>
+        <v>0.07022453811193624</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007088052912180281</v>
+        <v>0.06141165590245502</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01804427910733714</v>
+        <v>-0.008812882209481225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cat__sex_Female</t>
+          <t>cat__sex_Male</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02447014536651998</v>
+        <v>0.008738189674903927</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009537837587804403</v>
+        <v>0.01505637094247623</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01493230777871557</v>
+        <v>0.006318181267572304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cat__relationship_Own-child</t>
+          <t>cat__workclass_Self-emp-inc</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01225513634557396</v>
+        <v>0.005362686580012595</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02261366622111014</v>
+        <v>0.001400549178052067</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01035852987553618</v>
+        <v>-0.003962137401960527</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cat__marital-status_Never-married</t>
+          <t>remainder__fnlwgt</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.03885561718388435</v>
+        <v>0.01655399778271428</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04897085273482057</v>
+        <v>0.01987446409989107</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01011523555093622</v>
+        <v>0.003320466317176782</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>remainder__capital-loss</t>
+          <t>cat__relationship_Unmarried</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03934654203080398</v>
+        <v>0.008541003951843158</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02979899542678384</v>
+        <v>0.005615456540227881</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.009547546604020143</v>
+        <v>-0.002925547411615277</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cat__relationship_Not-in-family</t>
+          <t>cat__workclass_Self-emp-not-inc</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01224229521577481</v>
+        <v>0.00529747573629178</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004731489523958845</v>
+        <v>0.002562418398218952</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00751080569181597</v>
+        <v>-0.002735057338072827</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cat__workclass_Self-emp-inc</t>
+          <t>cat__workclass_Federal-gov</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.006052124653213023</v>
+        <v>0.00365074917186695</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0005576819374960189</v>
+        <v>0.001078122775889506</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.005494442715717003</v>
+        <v>-0.002572626395977444</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cat__sex_Male</t>
+          <t>remainder__capital-loss</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.007514459699811214</v>
+        <v>0.04722605407868997</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01184103979065427</v>
+        <v>0.04976760892980179</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004326580090843056</v>
+        <v>0.002541554851111821</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cat__relationship_Unmarried</t>
+          <t>cat__workclass_Private</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.009355299493191254</v>
+        <v>0.004770448307312863</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005939889060363675</v>
+        <v>0.007192602636595773</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.003415410432827579</v>
+        <v>0.00242215432928291</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cat__workclass_Self-emp-not-inc</t>
+          <t>cat__sex_Female</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.002403264975102837</v>
+        <v>0.01122498463114001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0004403806943829744</v>
+        <v>0.01330168820437469</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.001962884280719862</v>
+        <v>0.002076703573234674</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cat__relationship_Other-relative</t>
+          <t>cat__marital-status_Divorced</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.001945255148968372</v>
+        <v>0.005639534628637112</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0002272609400506666</v>
+        <v>0.00373660026422552</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.001717994208917706</v>
+        <v>-0.001902934364411592</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cat__workclass_Private</t>
+          <t>cat__relationship_Own-child</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.002185536143422753</v>
+        <v>0.01574599318002204</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003723145891369704</v>
+        <v>0.01686718542769097</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001537609747946951</v>
+        <v>0.001121192247668927</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cat__marital-status_Divorced</t>
+          <t>cat__marital-status_Married-AF-spouse</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.004537609371956226</v>
+        <v>0.0003068729700870341</v>
       </c>
       <c r="D21" t="n">
-        <v>0.005699960455181938</v>
+        <v>0.001028479427913072</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001162351083225712</v>
+        <v>0.0007216064578260378</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cat__workclass_Federal-gov</t>
+          <t>cat__marital-status_Widowed</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.001312229208618808</v>
+        <v>0.000924755729536701</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0001649578249628926</v>
+        <v>0.001613841360801016</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.001147271383655915</v>
+        <v>0.0006890856312643148</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cat__workclass_Local-gov</t>
+          <t>cat__marital-status_Separated</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0003045767205415566</v>
+        <v>0.0008318720427088429</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001234169106996868</v>
+        <v>0.001398920651220669</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000929592386455311</v>
+        <v>0.000567048608511826</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-AF-spouse</t>
+          <t>cat__race_Black</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6.323537895974308e-05</v>
+        <v>0.001579826284583846</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0006229017686880507</v>
+        <v>0.00195703724003906</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0005596663897283077</v>
+        <v>0.0003772109554552143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cat__race_White</t>
+          <t>cat__marital-status_Married-spouse-absent</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0008934137899405874</v>
+        <v>0.0004506343657744599</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0005902197911992214</v>
+        <v>0.0008126769979295714</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.000303193998741366</v>
+        <v>0.0003620426321551115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-spouse-absent</t>
+          <t>cat__workclass_State-gov</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.974493909872272e-05</v>
+        <v>0.001294195133481278</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0002104164341057057</v>
+        <v>0.001623714429026513</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000170671495006983</v>
+        <v>0.0003295192955452345</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cat__workclass_State-gov</t>
+          <t>cat__workclass_Local-gov</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0004085405167386474</v>
+        <v>0.002027402676042247</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0002679352562643713</v>
+        <v>0.00170990609669896</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.000140605260474276</v>
+        <v>-0.0003174965793432867</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cat__marital-status_Widowed</t>
+          <t>cat__race_Other</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.512150606364705e-05</v>
+        <v>0.000465102216669315</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001573990784011918</v>
+        <v>0.0007685297033506846</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0001122775723375448</v>
+        <v>0.0003034274866813696</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cat__race_Black</t>
+          <t>cat__workclass_Without-pay</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.001310632960403619</v>
+        <v>4.80955284956976e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001407573685074551</v>
+        <v>0.0003430980380655776</v>
       </c>
       <c r="E29" t="n">
-        <v>9.694072467093177e-05</v>
+        <v>0.00029500250956988</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cat__marital-status_Separated</t>
+          <t>cat__marital-status_Never-married</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0003521867487667881</v>
+        <v>0.04141155985022909</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0002846072947632969</v>
+        <v>0.0417006230899783</v>
       </c>
       <c r="E30" t="n">
-        <v>-6.757945400349117e-05</v>
+        <v>0.0002890632397492127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cat__race_Asian-Pac-Islander</t>
+          <t>cat__relationship_Other-relative</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0003483307600166313</v>
+        <v>0.001679982632059826</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0003128322700034344</v>
+        <v>0.001428384515810065</v>
       </c>
       <c r="E31" t="n">
-        <v>-3.549849001319692e-05</v>
+        <v>-0.0002515981162497607</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cat__race_Other</t>
+          <t>cat__race_White</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.587939502105877e-05</v>
+        <v>0.002391543363275563</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0001285500855644762</v>
+        <v>0.002276575712501092</v>
       </c>
       <c r="E32" t="n">
-        <v>3.267069054341739e-05</v>
+        <v>-0.0001149676507744709</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cat__workclass_Without-pay</t>
+          <t>cat__race_Amer-Indian-Eskimo</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.963345443620484e-06</v>
+        <v>0.0006555682049822973</v>
       </c>
       <c r="D33" t="n">
-        <v>3.277021571055922e-05</v>
+        <v>0.0006033583152107683</v>
       </c>
       <c r="E33" t="n">
-        <v>2.680687026693874e-05</v>
+        <v>-5.220988977152903e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cat__race_Amer-Indian-Eskimo</t>
+          <t>cat__race_Asian-Pac-Islander</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8.200604296544481e-05</v>
+        <v>0.001468792447027429</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001046977609175639</v>
+        <v>0.00151281573326361</v>
       </c>
       <c r="E34" t="n">
-        <v>2.269171795211909e-05</v>
+        <v>4.402328623618126e-05</v>
       </c>
     </row>
   </sheetData>
